--- a/src/crawler_base/category_lv3.xlsx
+++ b/src/crawler_base/category_lv3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AIVE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ffb2f3cbc3d60bb/바탕 화면/trend-crawler/src/crawler_base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D73CAA-6EE4-4037-8439-3B5FD8359791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{80D73CAA-6EE4-4037-8439-3B5FD8359791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F97AA3EA-C56C-4EA5-B38E-A1FC5E7E5D4F}"/>
   <bookViews>
-    <workbookView xWindow="13365" yWindow="6810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11805" yWindow="-17100" windowWidth="14415" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1489,7 +1489,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1501,6 +1501,8 @@
       <b/>
       <sz val="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1869,12 +1871,15 @@
   <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="7" width="13.08203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1897,7 +1902,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1920,7 +1925,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1943,7 +1948,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1966,7 +1971,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1989,7 +1994,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2012,7 +2017,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2035,7 +2040,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2058,7 +2063,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2081,7 +2086,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2104,7 +2109,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2127,7 +2132,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2150,7 +2155,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2173,7 +2178,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2196,7 +2201,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2219,7 +2224,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2242,7 +2247,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2265,7 +2270,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2288,7 +2293,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2311,7 +2316,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2334,7 +2339,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2357,7 +2362,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -2380,7 +2385,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2403,7 +2408,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2426,7 +2431,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2449,7 +2454,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2472,7 +2477,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2495,7 +2500,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2518,7 +2523,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -2541,7 +2546,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -2564,7 +2569,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -2587,7 +2592,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -2610,7 +2615,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -2633,7 +2638,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2656,7 +2661,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2679,7 +2684,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -2702,7 +2707,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -2725,7 +2730,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2748,7 +2753,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -2771,7 +2776,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -2794,7 +2799,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2817,7 +2822,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -2840,7 +2845,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -2863,7 +2868,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -2886,7 +2891,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -2909,7 +2914,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -2932,7 +2937,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -2955,7 +2960,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -2978,7 +2983,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -3001,7 +3006,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -3024,7 +3029,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -3047,7 +3052,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -3070,7 +3075,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -3093,7 +3098,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -3116,7 +3121,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -3139,7 +3144,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -3162,7 +3167,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -3185,7 +3190,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>80</v>
       </c>
@@ -3208,7 +3213,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -3231,7 +3236,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -3254,7 +3259,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -3277,7 +3282,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -3300,7 +3305,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>136</v>
       </c>
@@ -3323,7 +3328,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>136</v>
       </c>
@@ -3346,7 +3351,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -3369,7 +3374,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -3392,7 +3397,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>136</v>
       </c>
@@ -3415,7 +3420,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>136</v>
       </c>
@@ -3438,7 +3443,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -3461,7 +3466,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>136</v>
       </c>
@@ -3484,7 +3489,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -3507,7 +3512,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>136</v>
       </c>
@@ -3530,7 +3535,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>136</v>
       </c>
@@ -3553,7 +3558,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>136</v>
       </c>
@@ -3576,7 +3581,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -3599,7 +3604,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -3622,7 +3627,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>136</v>
       </c>
@@ -3645,7 +3650,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>136</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>170</v>
       </c>
@@ -3691,7 +3696,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>170</v>
       </c>
@@ -3714,7 +3719,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>170</v>
       </c>
@@ -3737,7 +3742,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>170</v>
       </c>
@@ -3760,7 +3765,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>170</v>
       </c>
@@ -3783,7 +3788,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>170</v>
       </c>
@@ -3806,7 +3811,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>170</v>
       </c>
@@ -3829,7 +3834,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -3852,7 +3857,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>170</v>
       </c>
@@ -3875,7 +3880,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -3898,7 +3903,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>170</v>
       </c>
@@ -3921,7 +3926,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>170</v>
       </c>
@@ -3944,7 +3949,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>170</v>
       </c>
@@ -3967,7 +3972,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>170</v>
       </c>
@@ -3990,7 +3995,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>170</v>
       </c>
@@ -4013,7 +4018,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>170</v>
       </c>
@@ -4036,7 +4041,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>170</v>
       </c>
@@ -4059,7 +4064,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>170</v>
       </c>
@@ -4082,7 +4087,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>170</v>
       </c>
@@ -4105,7 +4110,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>170</v>
       </c>
@@ -4128,7 +4133,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>170</v>
       </c>
@@ -4151,7 +4156,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>170</v>
       </c>
@@ -4174,7 +4179,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>170</v>
       </c>
@@ -4197,7 +4202,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>170</v>
       </c>
@@ -4220,7 +4225,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>170</v>
       </c>
@@ -4243,7 +4248,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>170</v>
       </c>
@@ -4266,7 +4271,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>170</v>
       </c>
@@ -4289,7 +4294,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>170</v>
       </c>
@@ -4312,7 +4317,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>170</v>
       </c>
@@ -4335,7 +4340,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>170</v>
       </c>
@@ -4358,7 +4363,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>170</v>
       </c>
@@ -4381,7 +4386,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>170</v>
       </c>
@@ -4404,7 +4409,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>236</v>
       </c>
@@ -4427,7 +4432,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>236</v>
       </c>
@@ -4450,7 +4455,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -4473,7 +4478,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>236</v>
       </c>
@@ -4496,7 +4501,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>236</v>
       </c>
@@ -4519,7 +4524,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>236</v>
       </c>
@@ -4542,7 +4547,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>236</v>
       </c>
@@ -4565,7 +4570,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>236</v>
       </c>
@@ -4588,7 +4593,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -4611,7 +4616,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>236</v>
       </c>
@@ -4634,7 +4639,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>236</v>
       </c>
@@ -4657,7 +4662,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>236</v>
       </c>
@@ -4680,7 +4685,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>236</v>
       </c>
@@ -4703,7 +4708,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>264</v>
       </c>
@@ -4726,7 +4731,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>264</v>
       </c>
@@ -4749,7 +4754,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>264</v>
       </c>
@@ -4772,7 +4777,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>264</v>
       </c>
@@ -4795,7 +4800,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>264</v>
       </c>
@@ -4818,7 +4823,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>264</v>
       </c>
@@ -4841,7 +4846,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>264</v>
       </c>
@@ -4864,7 +4869,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>264</v>
       </c>
@@ -4887,7 +4892,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>264</v>
       </c>
@@ -4910,7 +4915,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -4933,7 +4938,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -4956,7 +4961,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>264</v>
       </c>
@@ -4979,7 +4984,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>264</v>
       </c>
@@ -5002,7 +5007,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>264</v>
       </c>
@@ -5025,7 +5030,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>264</v>
       </c>
@@ -5048,7 +5053,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>264</v>
       </c>
@@ -5071,7 +5076,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>264</v>
       </c>
@@ -5094,7 +5099,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>264</v>
       </c>
@@ -5117,7 +5122,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>264</v>
       </c>
@@ -5140,7 +5145,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>264</v>
       </c>
@@ -5163,7 +5168,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>264</v>
       </c>
@@ -5186,7 +5191,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>264</v>
       </c>
@@ -5209,7 +5214,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>264</v>
       </c>
@@ -5232,7 +5237,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>264</v>
       </c>
@@ -5255,7 +5260,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>264</v>
       </c>
@@ -5278,7 +5283,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>264</v>
       </c>
@@ -5301,7 +5306,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>264</v>
       </c>
@@ -5324,7 +5329,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>264</v>
       </c>
@@ -5347,7 +5352,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>264</v>
       </c>
@@ -5370,7 +5375,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>264</v>
       </c>
@@ -5393,7 +5398,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>264</v>
       </c>
@@ -5416,7 +5421,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>264</v>
       </c>
@@ -5439,7 +5444,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>264</v>
       </c>
@@ -5462,7 +5467,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>332</v>
       </c>
@@ -5485,7 +5490,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -5508,7 +5513,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>332</v>
       </c>
@@ -5531,7 +5536,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>332</v>
       </c>
@@ -5554,7 +5559,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>332</v>
       </c>
@@ -5577,7 +5582,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>332</v>
       </c>
@@ -5600,7 +5605,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -5623,7 +5628,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>332</v>
       </c>
@@ -5646,7 +5651,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>332</v>
       </c>
@@ -5669,7 +5674,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>332</v>
       </c>
@@ -5692,7 +5697,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>332</v>
       </c>
@@ -5715,7 +5720,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>332</v>
       </c>
@@ -5738,7 +5743,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>332</v>
       </c>
@@ -5761,7 +5766,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>332</v>
       </c>
@@ -5784,7 +5789,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>332</v>
       </c>
@@ -5807,7 +5812,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>332</v>
       </c>
@@ -5830,7 +5835,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>332</v>
       </c>
@@ -5853,7 +5858,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>332</v>
       </c>
@@ -5876,7 +5881,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>332</v>
       </c>
@@ -5899,7 +5904,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>332</v>
       </c>
@@ -5922,7 +5927,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>332</v>
       </c>
@@ -5945,7 +5950,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>332</v>
       </c>
@@ -5968,7 +5973,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>332</v>
       </c>
@@ -5991,7 +5996,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>332</v>
       </c>
@@ -6014,7 +6019,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>332</v>
       </c>
@@ -6037,7 +6042,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>332</v>
       </c>
@@ -6060,7 +6065,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>332</v>
       </c>
@@ -6083,7 +6088,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>332</v>
       </c>
@@ -6106,7 +6111,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>332</v>
       </c>
@@ -6129,7 +6134,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>332</v>
       </c>
@@ -6152,7 +6157,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>332</v>
       </c>
@@ -6175,7 +6180,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>332</v>
       </c>
@@ -6198,7 +6203,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>332</v>
       </c>
@@ -6221,7 +6226,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>400</v>
       </c>
@@ -6244,7 +6249,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>400</v>
       </c>
@@ -6267,7 +6272,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>400</v>
       </c>
@@ -6290,7 +6295,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>400</v>
       </c>
@@ -6313,7 +6318,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>400</v>
       </c>
@@ -6336,7 +6341,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>400</v>
       </c>
@@ -6359,7 +6364,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>400</v>
       </c>
@@ -6382,7 +6387,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>400</v>
       </c>
@@ -6405,7 +6410,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>418</v>
       </c>
@@ -6428,7 +6433,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>418</v>
       </c>
@@ -6451,7 +6456,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>418</v>
       </c>
@@ -6474,7 +6479,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>418</v>
       </c>
@@ -6497,7 +6502,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>418</v>
       </c>
@@ -6520,7 +6525,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>418</v>
       </c>
@@ -6543,7 +6548,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>418</v>
       </c>
@@ -6566,7 +6571,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>432</v>
       </c>
@@ -6589,7 +6594,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>432</v>
       </c>
@@ -6612,7 +6617,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>432</v>
       </c>
@@ -6635,7 +6640,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>432</v>
       </c>
@@ -6658,7 +6663,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>432</v>
       </c>
@@ -6681,7 +6686,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>432</v>
       </c>
@@ -6704,7 +6709,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>432</v>
       </c>
@@ -6727,7 +6732,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>432</v>
       </c>
@@ -6750,7 +6755,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>432</v>
       </c>
@@ -6773,7 +6778,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>432</v>
       </c>
@@ -6796,7 +6801,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>432</v>
       </c>
@@ -6819,7 +6824,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>432</v>
       </c>
@@ -6842,7 +6847,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>432</v>
       </c>
@@ -6865,7 +6870,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>432</v>
       </c>
@@ -6888,7 +6893,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>432</v>
       </c>
@@ -6911,7 +6916,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>432</v>
       </c>
@@ -6934,7 +6939,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>432</v>
       </c>
@@ -6957,7 +6962,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>432</v>
       </c>
@@ -6980,7 +6985,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>432</v>
       </c>
@@ -7003,7 +7008,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>432</v>
       </c>
@@ -7026,7 +7031,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>432</v>
       </c>
@@ -7049,7 +7054,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>432</v>
       </c>
@@ -7072,7 +7077,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>432</v>
       </c>
@@ -7095,7 +7100,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>432</v>
       </c>
@@ -7118,7 +7123,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>432</v>
       </c>
@@ -7141,7 +7146,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>432</v>
       </c>
